--- a/data/steel/IEAGHG_factory-crudesteel.xlsx
+++ b/data/steel/IEAGHG_factory-crudesteel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5A1920-9808-5247-95D0-E639F50D3F1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7E696F-1BAB-5940-B3F6-FAE80F7F4F29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1480" windowWidth="26520" windowHeight="16520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IEAGHG chains" sheetId="9" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="53">
   <si>
     <t>Inflow</t>
   </si>
@@ -186,12 +186,6 @@
   </si>
   <si>
     <t>energy in blast furnace gas</t>
-  </si>
-  <si>
-    <t>flare</t>
-  </si>
-  <si>
-    <t>heat_flare</t>
   </si>
 </sst>
 </file>
@@ -574,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,23 +676,12 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -710,7 +693,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1222,8 +1205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
